--- a/.xlsx
+++ b/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Hóa đơn</t>
   </si>
@@ -39,18 +39,6 @@
   </si>
   <si>
     <t>1.0kg</t>
-  </si>
-  <si>
-    <t>Sữa bột Vinamilk Yoko Gold</t>
-  </si>
-  <si>
-    <t>0.35kg</t>
-  </si>
-  <si>
-    <t>Sữa tươi tiệt trùng có đường Cô Gái Hà Lan</t>
-  </si>
-  <si>
-    <t>1.0L</t>
   </si>
 </sst>
 </file>
@@ -95,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,50 +128,10 @@
         <v>4000.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="n">
-        <v>4000.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>30000.0</v>
+        <v>24000.0</v>
       </c>
     </row>
   </sheetData>
